--- a/biology/Zoologie/Herpetoreas_platyceps/Herpetoreas_platyceps.xlsx
+++ b/biology/Zoologie/Herpetoreas_platyceps/Herpetoreas_platyceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herpetoreas platyceps est une espèce de serpents de la famille des Natricidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herpetoreas platyceps est une espèce de serpents de la famille des Natricidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Pakistan ;
 en Inde dans les États du Jammu-et-Cachemire, du Sikkim, du Penjab, d'Assam, du Bengale-Occidental, du Meghalaya, d'Himachal Pradesh et d'Arunachal Pradesh ;
 au Népal, entre 1 040 et 3 657 m d'altitude ;
@@ -547,7 +561,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Blyth, 1855 "1854" : Notices and descriptions of various reptiles, new or little known. Journal of the Asiatic Society of Bengal, vol. 23, p. 287-302 (texte intégral).</t>
         </is>
